--- a/bin/Debug/Ventas/2023-05-21/Ventas_2023-05-21.xlsx
+++ b/bin/Debug/Ventas/2023-05-21/Ventas_2023-05-21.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Product</t>
   </si>
@@ -21,10 +21,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>AGUA DASANI</t>
-  </si>
-  <si>
-    <t>GATORADE ROJO</t>
+    <t>GRANOLA 50g</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -73,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -92,15 +89,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -110,7 +99,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -121,7 +110,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -129,15 +118,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
